--- a/source/Assets/Assets/BigStarCollectibles CosmosDB.xlsx
+++ b/source/Assets/Assets/BigStarCollectibles CosmosDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Microsoft\Courseware\Assets\LiL-Brands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WR\source\repos\azure-cosmos-db-table-api-2448119\source\Assets\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E54A7F1-6B06-489A-AB98-FC5A157FA70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB73AAB1-A5D6-4032-9842-E080BE28EA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B907D294-0E78-4341-9B43-E726771B09E6}"/>
+    <workbookView xWindow="1188" yWindow="1188" windowWidth="23040" windowHeight="12612" xr2:uid="{B907D294-0E78-4341-9B43-E726771B09E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,18 +42,12 @@
     <t>Trading Cards</t>
   </si>
   <si>
-    <t>Daily Card Bids</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Card.Family</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Slogan</t>
   </si>
   <si>
@@ -114,31 +108,37 @@
     <t>Violette</t>
   </si>
   <si>
-    <t>Planet: Amethystopia</t>
-  </si>
-  <si>
     <t>Helios</t>
   </si>
   <si>
     <t>Trisaphron</t>
   </si>
   <si>
-    <t>Planet: Hexapoda Minor</t>
-  </si>
-  <si>
     <t>Tomolor</t>
   </si>
   <si>
-    <t>Planet: Krachonk</t>
-  </si>
-  <si>
     <t>SuperNovas</t>
   </si>
   <si>
     <t>Narf the fourth</t>
   </si>
   <si>
-    <t>Planet: Strogarus</t>
+    <t>Daily Card Sales</t>
+  </si>
+  <si>
+    <t>Card Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amethystopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hexapoda Minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krachonk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strogarus</t>
   </si>
 </sst>
 </file>
@@ -321,22 +321,6 @@
   <dxfs count="14">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFA3A3A3"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFA3A3A3"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FFA3A3A3"/>
@@ -511,13 +495,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFA3A3A3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFA3A3A3"/>
         </left>
@@ -530,6 +507,29 @@
         <bottom style="medium">
           <color rgb="FFA3A3A3"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFA3A3A3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFA3A3A3"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFA3A3A3"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -546,18 +546,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B23709A6-0789-4451-8D89-CB48C3985F17}" name="Table1" displayName="Table1" ref="C6:K14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B23709A6-0789-4451-8D89-CB48C3985F17}" name="Table1" displayName="Table1" ref="C6:K14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="C6:K14" xr:uid="{B23709A6-0789-4451-8D89-CB48C3985F17}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{082D92ED-EDB3-4715-9C6D-353E37AE181E}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{98A077B8-4F29-4025-83C3-CC6065E9B76A}" name="Card.Family" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{4FB45AAC-7118-4356-A0A1-1FDA6BC5E415}" name="Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BD2535AB-FE3F-490D-BA75-A4D3A29D860B}" name="Slogan" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{DEFD1530-08C5-4648-A105-7278D70CE9C5}" name="Planet" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{EF5B77B5-ED9B-45A1-8783-21EBEB045989}" name="Bid Price" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C8D2B9FF-4A1F-4AE3-A277-C27D53742094}" name="Popularity Index" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{3E095BAF-554C-4956-A5A7-96A0F616F452}" name="UnitsSold" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{F92867EA-FC53-4EB0-AD69-C78A4DB928DD}" name="TeamName" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{082D92ED-EDB3-4715-9C6D-353E37AE181E}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{98A077B8-4F29-4025-83C3-CC6065E9B76A}" name="Card.Family" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4FB45AAC-7118-4356-A0A1-1FDA6BC5E415}" name="Card Name" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BD2535AB-FE3F-490D-BA75-A4D3A29D860B}" name="Slogan" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{DEFD1530-08C5-4648-A105-7278D70CE9C5}" name="Planet" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{EF5B77B5-ED9B-45A1-8783-21EBEB045989}" name="Bid Price" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C8D2B9FF-4A1F-4AE3-A277-C27D53742094}" name="Popularity Index" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{3E095BAF-554C-4956-A5A7-96A0F616F452}" name="UnitsSold" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{F92867EA-FC53-4EB0-AD69-C78A4DB928DD}" name="TeamName" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,80 +862,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730AD398-9ECE-4C01-9FCC-52B4D29DF3B8}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="2">
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
@@ -948,21 +948,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="2">
         <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
@@ -975,21 +975,21 @@
         <v>2</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2">
         <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
@@ -1002,21 +1002,21 @@
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="2">
         <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
@@ -1029,22 +1029,22 @@
         <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="2">
         <v>201</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1">
         <v>8.9499999999999993</v>
@@ -1056,22 +1056,22 @@
         <v>2</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="2">
         <v>207</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1">
         <v>15.95</v>
@@ -1083,22 +1083,22 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="2">
         <v>207</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1">
         <v>17.95</v>
@@ -1110,18 +1110,18 @@
         <v>2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
         <v>206</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
